--- a/controle site Helly.xlsx
+++ b/controle site Helly.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/controle site Helly.xlsx
+++ b/controle site Helly.xlsx
@@ -113,10 +113,10 @@
     <t>Valor combinado R$60,00/hora</t>
   </si>
   <si>
-    <t>Criação de E-mail em HTML - versão 1</t>
-  </si>
-  <si>
-    <t>1h15</t>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Criação de E-mail em HTML - versão 1 e alterações para 2.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -638,13 +638,13 @@
         <v>41469</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="2">
-        <v>1.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5">
         <f>SUM(D3:D7)</f>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D9" s="2">
         <f>60*D8</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">

--- a/controle site Helly.xlsx
+++ b/controle site Helly.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Colunas1</t>
   </si>
@@ -118,15 +118,34 @@
   <si>
     <t>Criação de E-mail em HTML - versão 1 e alterações para 2.</t>
   </si>
+  <si>
+    <t>alteração no texto, assinatura</t>
+  </si>
+  <si>
+    <t>0h15m</t>
+  </si>
+  <si>
+    <t>mais imagens, título no topo, redesign do html</t>
+  </si>
+  <si>
+    <t>0h30</t>
+  </si>
+  <si>
+    <t>preparando logos (será usado no site)</t>
+  </si>
+  <si>
+    <t>Inclusão de mais imagens, correção de texto, reunião</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,6 +213,19 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -228,12 +260,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,8 +309,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Moeda" xfId="3" builtinId="4"/>
     <cellStyle name="Moeda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -584,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -648,19 +685,60 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>41470</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3">
+        <v>41471</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3">
+        <v>41443</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="14">
+        <v>41444</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="30.75" x14ac:dyDescent="0.25">
@@ -671,122 +749,122 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5">
         <f>SUM(D3:D7)</f>
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="16">
         <f>60*D8</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
+    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>11</v>
+    <row r="17" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="2:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
+    <row r="18" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>12</v>
-      </c>
+    <row r="19" spans="2:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>13</v>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
+    <row r="21" spans="2:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="2:5" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="12" t="s">
         <v>17</v>
       </c>
     </row>
